--- a/docs/tests/test report1.xlsx
+++ b/docs/tests/test report1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KiemThuPhanMem\DoAn\sgu_ktpm\docs\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96069EAF-42B0-4E43-95A8-59BD97D30214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29F8ACE-B64C-46AB-A4D0-628AD89F2B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,6 +539,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -557,17 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29271,8 +29271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29289,15 +29289,15 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -29323,10 +29323,10 @@
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -29355,8 +29355,8 @@
       <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -29385,10 +29385,10 @@
       <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -29417,10 +29417,10 @@
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -29797,14 +29797,14 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -29836,10 +29836,10 @@
       <c r="D19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="30"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -29872,8 +29872,8 @@
       <c r="D20" s="18">
         <v>34</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="30"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -29906,8 +29906,8 @@
       <c r="D21" s="18">
         <v>34</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="30"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -29940,8 +29940,8 @@
       <c r="D22" s="18">
         <v>33</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="30"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -29974,8 +29974,8 @@
       <c r="D23" s="18">
         <v>1</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="30"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -30008,8 +30008,8 @@
       <c r="D24" s="18">
         <v>0</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="30"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -30067,15 +30067,15 @@
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="20">
         <v>0</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="30"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -30211,15 +30211,15 @@
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="30"/>
       <c r="H31" s="12"/>
       <c r="I31" s="10"/>
@@ -57399,11 +57399,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="B18:G18"/>
@@ -57415,6 +57410,11 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
